--- a/9/1/1/7/Trimestral (metodología vigente) 2002 a 2021 - Trimestral.xlsx
+++ b/9/1/1/7/Trimestral (metodología vigente) 2002 a 2021 - Trimestral.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="88">
   <si>
     <t>Serie</t>
   </si>
@@ -275,6 +275,9 @@
   </si>
   <si>
     <t>01-04-2021</t>
+  </si>
+  <si>
+    <t>01-07-2021</t>
   </si>
 </sst>
 </file>
@@ -632,7 +635,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I79"/>
+  <dimension ref="A1:I80"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -672,7 +675,7 @@
         <v>9</v>
       </c>
       <c r="B2">
-        <v>4180.2</v>
+        <v>4269.9</v>
       </c>
       <c r="C2">
         <v>2519.9</v>
@@ -701,7 +704,7 @@
         <v>10</v>
       </c>
       <c r="B3">
-        <v>4193.5</v>
+        <v>4288.2</v>
       </c>
       <c r="C3">
         <v>2469.1</v>
@@ -730,7 +733,7 @@
         <v>11</v>
       </c>
       <c r="B4">
-        <v>4217.8</v>
+        <v>4306.3</v>
       </c>
       <c r="C4">
         <v>2463.2</v>
@@ -759,7 +762,7 @@
         <v>12</v>
       </c>
       <c r="B5">
-        <v>4200.8</v>
+        <v>4295.4</v>
       </c>
       <c r="C5">
         <v>2487.5</v>
@@ -788,7 +791,7 @@
         <v>13</v>
       </c>
       <c r="B6">
-        <v>4211.6</v>
+        <v>4313</v>
       </c>
       <c r="C6">
         <v>2565.1</v>
@@ -817,7 +820,7 @@
         <v>14</v>
       </c>
       <c r="B7">
-        <v>4233.5</v>
+        <v>4330.6</v>
       </c>
       <c r="C7">
         <v>2485.6</v>
@@ -846,7 +849,7 @@
         <v>15</v>
       </c>
       <c r="B8">
-        <v>4256.9</v>
+        <v>4348.2</v>
       </c>
       <c r="C8">
         <v>2474.7</v>
@@ -875,7 +878,7 @@
         <v>16</v>
       </c>
       <c r="B9">
-        <v>4264.9</v>
+        <v>4366</v>
       </c>
       <c r="C9">
         <v>2545.7</v>
@@ -904,7 +907,7 @@
         <v>17</v>
       </c>
       <c r="B10">
-        <v>4299.4</v>
+        <v>4384.4</v>
       </c>
       <c r="C10">
         <v>2582.9</v>
@@ -933,7 +936,7 @@
         <v>18</v>
       </c>
       <c r="B11">
-        <v>4308.4</v>
+        <v>4402.8</v>
       </c>
       <c r="C11">
         <v>2566</v>
@@ -962,7 +965,7 @@
         <v>19</v>
       </c>
       <c r="B12">
-        <v>4326.5</v>
+        <v>4421.4</v>
       </c>
       <c r="C12">
         <v>2579.3</v>
@@ -991,7 +994,7 @@
         <v>20</v>
       </c>
       <c r="B13">
-        <v>4342.2</v>
+        <v>4440</v>
       </c>
       <c r="C13">
         <v>2688.7</v>
@@ -1020,7 +1023,7 @@
         <v>21</v>
       </c>
       <c r="B14">
-        <v>4362.2</v>
+        <v>4458.8</v>
       </c>
       <c r="C14">
         <v>2629.7</v>
@@ -1049,7 +1052,7 @@
         <v>22</v>
       </c>
       <c r="B15">
-        <v>4391.8</v>
+        <v>4477.6</v>
       </c>
       <c r="C15">
         <v>2661.2</v>
@@ -1078,7 +1081,7 @@
         <v>23</v>
       </c>
       <c r="B16">
-        <v>4405.3</v>
+        <v>4496.5</v>
       </c>
       <c r="C16">
         <v>2630.6</v>
@@ -1107,7 +1110,7 @@
         <v>24</v>
       </c>
       <c r="B17">
-        <v>4413.2</v>
+        <v>4515.5</v>
       </c>
       <c r="C17">
         <v>2745.7</v>
@@ -1136,7 +1139,7 @@
         <v>25</v>
       </c>
       <c r="B18">
-        <v>4429</v>
+        <v>4533.7</v>
       </c>
       <c r="C18">
         <v>2709.5</v>
@@ -1165,7 +1168,7 @@
         <v>26</v>
       </c>
       <c r="B19">
-        <v>4458.6</v>
+        <v>4551.9</v>
       </c>
       <c r="C19">
         <v>2690.7</v>
@@ -1194,7 +1197,7 @@
         <v>27</v>
       </c>
       <c r="B20">
-        <v>4475</v>
+        <v>4570.3</v>
       </c>
       <c r="C20">
         <v>2732</v>
@@ -1223,7 +1226,7 @@
         <v>28</v>
       </c>
       <c r="B21">
-        <v>4493.5</v>
+        <v>4588.7</v>
       </c>
       <c r="C21">
         <v>2785.7</v>
@@ -1252,7 +1255,7 @@
         <v>29</v>
       </c>
       <c r="B22">
-        <v>4503.2</v>
+        <v>4606.1</v>
       </c>
       <c r="C22">
         <v>2765.3</v>
@@ -1281,7 +1284,7 @@
         <v>30</v>
       </c>
       <c r="B23">
-        <v>4517.2</v>
+        <v>4623.7</v>
       </c>
       <c r="C23">
         <v>2690.6</v>
@@ -1310,7 +1313,7 @@
         <v>31</v>
       </c>
       <c r="B24">
-        <v>4555.2</v>
+        <v>4641.2</v>
       </c>
       <c r="C24">
         <v>2764.7</v>
@@ -1339,7 +1342,7 @@
         <v>32</v>
       </c>
       <c r="B25">
-        <v>4566.2</v>
+        <v>4658.9</v>
       </c>
       <c r="C25">
         <v>2842</v>
@@ -1368,7 +1371,7 @@
         <v>33</v>
       </c>
       <c r="B26">
-        <v>4583.1</v>
+        <v>4676.1</v>
       </c>
       <c r="C26">
         <v>2805.1</v>
@@ -1397,7 +1400,7 @@
         <v>34</v>
       </c>
       <c r="B27">
-        <v>4591.6</v>
+        <v>4693.4</v>
       </c>
       <c r="C27">
         <v>2773.1</v>
@@ -1426,7 +1429,7 @@
         <v>35</v>
       </c>
       <c r="B28">
-        <v>4604.4</v>
+        <v>4710.7</v>
       </c>
       <c r="C28">
         <v>2762.3</v>
@@ -1455,7 +1458,7 @@
         <v>36</v>
       </c>
       <c r="B29">
-        <v>4626.6</v>
+        <v>4728.1</v>
       </c>
       <c r="C29">
         <v>2825.3</v>
@@ -1484,7 +1487,7 @@
         <v>37</v>
       </c>
       <c r="B30">
-        <v>4648</v>
+        <v>4744.5</v>
       </c>
       <c r="C30">
         <v>2833.9</v>
@@ -1513,7 +1516,7 @@
         <v>38</v>
       </c>
       <c r="B31">
-        <v>4654.3</v>
+        <v>4760.9</v>
       </c>
       <c r="C31">
         <v>2782.1</v>
@@ -1542,7 +1545,7 @@
         <v>39</v>
       </c>
       <c r="B32">
-        <v>4673.4</v>
+        <v>4777.4</v>
       </c>
       <c r="C32">
         <v>2775</v>
@@ -1571,7 +1574,7 @@
         <v>40</v>
       </c>
       <c r="B33">
-        <v>4695.7</v>
+        <v>4793.9</v>
       </c>
       <c r="C33">
         <v>2881.6</v>
@@ -1600,7 +1603,7 @@
         <v>41</v>
       </c>
       <c r="B34">
-        <v>4713.2</v>
+        <v>4809.5</v>
       </c>
       <c r="C34">
         <v>2832.4</v>
@@ -1629,7 +1632,7 @@
         <v>42</v>
       </c>
       <c r="B35">
-        <v>4717.4</v>
+        <v>4825.1</v>
       </c>
       <c r="C35">
         <v>2855.2</v>
@@ -1658,7 +1661,7 @@
         <v>43</v>
       </c>
       <c r="B36">
-        <v>4746.2</v>
+        <v>4840.7</v>
       </c>
       <c r="C36">
         <v>2850.8</v>
@@ -1687,7 +1690,7 @@
         <v>44</v>
       </c>
       <c r="B37">
-        <v>4763.8</v>
+        <v>4856.4</v>
       </c>
       <c r="C37">
         <v>2906.6</v>
@@ -1716,7 +1719,7 @@
         <v>45</v>
       </c>
       <c r="B38">
-        <v>4782.9</v>
+        <v>4872.4</v>
       </c>
       <c r="C38">
         <v>2933.7</v>
@@ -1745,7 +1748,7 @@
         <v>46</v>
       </c>
       <c r="B39">
-        <v>4797.2</v>
+        <v>4888.4</v>
       </c>
       <c r="C39">
         <v>2916.3</v>
@@ -1774,7 +1777,7 @@
         <v>47</v>
       </c>
       <c r="B40">
-        <v>4801.6</v>
+        <v>4904.5</v>
       </c>
       <c r="C40">
         <v>2929.7</v>
@@ -1803,7 +1806,7 @@
         <v>48</v>
       </c>
       <c r="B41">
-        <v>4832.2</v>
+        <v>4920.7</v>
       </c>
       <c r="C41">
         <v>2970.2</v>
@@ -1832,7 +1835,7 @@
         <v>49</v>
       </c>
       <c r="B42">
-        <v>4838.7</v>
+        <v>4936.5</v>
       </c>
       <c r="C42">
         <v>2985.5</v>
@@ -1861,7 +1864,7 @@
         <v>50</v>
       </c>
       <c r="B43">
-        <v>4861</v>
+        <v>4952.4</v>
       </c>
       <c r="C43">
         <v>3002.8</v>
@@ -1890,7 +1893,7 @@
         <v>51</v>
       </c>
       <c r="B44">
-        <v>4872.3</v>
+        <v>4968.3</v>
       </c>
       <c r="C44">
         <v>2973.2</v>
@@ -1919,7 +1922,7 @@
         <v>52</v>
       </c>
       <c r="B45">
-        <v>4890.4</v>
+        <v>4984.3</v>
       </c>
       <c r="C45">
         <v>3028.7</v>
@@ -1948,7 +1951,7 @@
         <v>53</v>
       </c>
       <c r="B46">
-        <v>4905.1</v>
+        <v>4997.3</v>
       </c>
       <c r="C46">
         <v>3017</v>
@@ -1977,7 +1980,7 @@
         <v>54</v>
       </c>
       <c r="B47">
-        <v>4925.4</v>
+        <v>5010.4</v>
       </c>
       <c r="C47">
         <v>2981.1</v>
@@ -2006,7 +2009,7 @@
         <v>55</v>
       </c>
       <c r="B48">
-        <v>4926.1</v>
+        <v>5023.5</v>
       </c>
       <c r="C48">
         <v>3007.4</v>
@@ -2035,7 +2038,7 @@
         <v>56</v>
       </c>
       <c r="B49">
-        <v>4936.4</v>
+        <v>5036.6</v>
       </c>
       <c r="C49">
         <v>3087.2</v>
@@ -2064,7 +2067,7 @@
         <v>57</v>
       </c>
       <c r="B50">
-        <v>4965.3</v>
+        <v>5049.8</v>
       </c>
       <c r="C50">
         <v>3095.7</v>
@@ -2093,7 +2096,7 @@
         <v>58</v>
       </c>
       <c r="B51">
-        <v>4982</v>
+        <v>5063.1</v>
       </c>
       <c r="C51">
         <v>3054.7</v>
@@ -2122,7 +2125,7 @@
         <v>59</v>
       </c>
       <c r="B52">
-        <v>4989.5</v>
+        <v>5076.3</v>
       </c>
       <c r="C52">
         <v>3104.4</v>
@@ -2151,7 +2154,7 @@
         <v>60</v>
       </c>
       <c r="B53">
-        <v>5009.4</v>
+        <v>5089.6</v>
       </c>
       <c r="C53">
         <v>3173.4</v>
@@ -2180,7 +2183,7 @@
         <v>61</v>
       </c>
       <c r="B54">
-        <v>5010.9</v>
+        <v>5103.4</v>
       </c>
       <c r="C54">
         <v>3117.1</v>
@@ -2209,7 +2212,7 @@
         <v>62</v>
       </c>
       <c r="B55">
-        <v>5026.6</v>
+        <v>5117.2</v>
       </c>
       <c r="C55">
         <v>3119.5</v>
@@ -2238,7 +2241,7 @@
         <v>63</v>
       </c>
       <c r="B56">
-        <v>5058</v>
+        <v>5131.1</v>
       </c>
       <c r="C56">
         <v>3242.8</v>
@@ -2267,7 +2270,7 @@
         <v>64</v>
       </c>
       <c r="B57">
-        <v>5076.7</v>
+        <v>5145</v>
       </c>
       <c r="C57">
         <v>3145.6</v>
@@ -2296,7 +2299,7 @@
         <v>65</v>
       </c>
       <c r="B58">
-        <v>5087</v>
+        <v>5161.5</v>
       </c>
       <c r="C58">
         <v>3110.7</v>
@@ -2325,7 +2328,7 @@
         <v>66</v>
       </c>
       <c r="B59">
-        <v>5104.7</v>
+        <v>5178.1</v>
       </c>
       <c r="C59">
         <v>3198.8</v>
@@ -2354,7 +2357,7 @@
         <v>67</v>
       </c>
       <c r="B60">
-        <v>5118</v>
+        <v>5194.7</v>
       </c>
       <c r="C60">
         <v>3219.1</v>
@@ -2383,7 +2386,7 @@
         <v>68</v>
       </c>
       <c r="B61">
-        <v>5134.9</v>
+        <v>5211.4</v>
       </c>
       <c r="C61">
         <v>3249.4</v>
@@ -2412,7 +2415,7 @@
         <v>69</v>
       </c>
       <c r="B62">
-        <v>5167.8</v>
+        <v>5238.8</v>
       </c>
       <c r="C62">
         <v>3210</v>
@@ -2441,7 +2444,7 @@
         <v>70</v>
       </c>
       <c r="B63">
-        <v>5189.1</v>
+        <v>5266.3</v>
       </c>
       <c r="C63">
         <v>3233.4</v>
@@ -2470,7 +2473,7 @@
         <v>71</v>
       </c>
       <c r="B64">
-        <v>5231.2</v>
+        <v>5293.9</v>
       </c>
       <c r="C64">
         <v>3353.3</v>
@@ -2499,7 +2502,7 @@
         <v>72</v>
       </c>
       <c r="B65">
-        <v>5237.2</v>
+        <v>5321.7</v>
       </c>
       <c r="C65">
         <v>3311.6</v>
@@ -2528,7 +2531,7 @@
         <v>73</v>
       </c>
       <c r="B66">
-        <v>5262.1</v>
+        <v>5358.8</v>
       </c>
       <c r="C66">
         <v>3359.2</v>
@@ -2557,7 +2560,7 @@
         <v>74</v>
       </c>
       <c r="B67">
-        <v>5326</v>
+        <v>5396.1</v>
       </c>
       <c r="C67">
         <v>3369</v>
@@ -2586,7 +2589,7 @@
         <v>75</v>
       </c>
       <c r="B68">
-        <v>5358.6</v>
+        <v>5433.6</v>
       </c>
       <c r="C68">
         <v>3413.8</v>
@@ -2615,7 +2618,7 @@
         <v>76</v>
       </c>
       <c r="B69">
-        <v>5402.4</v>
+        <v>5471.4</v>
       </c>
       <c r="C69">
         <v>3456.5</v>
@@ -2644,7 +2647,7 @@
         <v>77</v>
       </c>
       <c r="B70">
-        <v>5435.4</v>
+        <v>5511.8</v>
       </c>
       <c r="C70">
         <v>3413.5</v>
@@ -2673,7 +2676,7 @@
         <v>78</v>
       </c>
       <c r="B71">
-        <v>5473.9</v>
+        <v>5552.5</v>
       </c>
       <c r="C71">
         <v>3503.5</v>
@@ -2702,7 +2705,7 @@
         <v>79</v>
       </c>
       <c r="B72">
-        <v>5502.3</v>
+        <v>5593.5</v>
       </c>
       <c r="C72">
         <v>3515.2</v>
@@ -2731,7 +2734,7 @@
         <v>80</v>
       </c>
       <c r="B73">
-        <v>5566.2</v>
+        <v>5634.8</v>
       </c>
       <c r="C73">
         <v>3581.8</v>
@@ -2760,7 +2763,7 @@
         <v>81</v>
       </c>
       <c r="B74">
-        <v>5607.5</v>
+        <v>5674.8</v>
       </c>
       <c r="C74">
         <v>3226.8</v>
@@ -2789,7 +2792,7 @@
         <v>82</v>
       </c>
       <c r="B75">
-        <v>5629.9</v>
+        <v>5715.1</v>
       </c>
       <c r="C75">
         <v>3103.1</v>
@@ -2927,6 +2930,35 @@
       </c>
       <c r="I79">
         <v>10.1</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9">
+      <c r="A80" t="s">
+        <v>87</v>
+      </c>
+      <c r="B80">
+        <v>5861.1</v>
+      </c>
+      <c r="C80">
+        <v>3351.6</v>
+      </c>
+      <c r="D80">
+        <v>3090.1</v>
+      </c>
+      <c r="E80">
+        <v>261.5</v>
+      </c>
+      <c r="F80">
+        <v>240.8</v>
+      </c>
+      <c r="G80">
+        <v>20.6</v>
+      </c>
+      <c r="H80">
+        <v>7.2</v>
+      </c>
+      <c r="I80">
+        <v>7.8</v>
       </c>
     </row>
   </sheetData>
